--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4091638.985800005</v>
+        <v>4085898.871091788</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359933</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.5047714517431</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.409879772764</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>36.64846519197897</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100848</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>74.44607742532625</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>203.0456596060402</v>
       </c>
     </row>
     <row r="4">
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>121.3842648627958</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>56.74709686182502</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>237.9332843063845</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>13.53541314334621</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.960716884752115</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>85.88160312186113</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>334.8191599132641</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>266.3191370776132</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>79.3292071608917</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.50134455463937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>94.87954332650961</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>138.2178776215689</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>237.3255850563317</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.90246112264775</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589034</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.20188851094979</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>18.06287339668504</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>39.12015238401576</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17.19701978441022</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>49.96616404348416</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>35.19569619650072</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>13.42874471570741</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>116.1752591856731</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.02435592407915</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873209</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>131.7942461569942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>220.5970051191078</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,13 +4194,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>179.795288066166</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>116.7053164022063</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.711943568063</v>
+        <v>1585.524671729989</v>
       </c>
       <c r="C2" t="n">
-        <v>1206.711943568063</v>
+        <v>1216.562154789577</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.711943568063</v>
+        <v>858.2964561828267</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.711943568063</v>
+        <v>472.5082035845825</v>
       </c>
       <c r="F2" t="n">
-        <v>795.7260387784554</v>
+        <v>61.52229879497494</v>
       </c>
       <c r="G2" t="n">
-        <v>377.4723621567762</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015912</v>
+        <v>138.9642385015904</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060715</v>
+        <v>397.0764468060702</v>
       </c>
       <c r="L2" t="n">
-        <v>769.56409259272</v>
+        <v>769.564092592718</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689011</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811683</v>
+        <v>1624.048915811678</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633675</v>
+        <v>1978.67911263367</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2243.673398054129</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804442</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="S2" t="n">
-        <v>2181.699137730943</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="T2" t="n">
-        <v>2181.699137730943</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="U2" t="n">
-        <v>1927.914162887445</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="V2" t="n">
-        <v>1596.851275543875</v>
+        <v>2328.432658975915</v>
       </c>
       <c r="W2" t="n">
-        <v>1596.851275543875</v>
+        <v>1975.6640037058</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.851275543875</v>
+        <v>1975.6640037058</v>
       </c>
       <c r="Y2" t="n">
-        <v>1206.711943568063</v>
+        <v>1585.524671729989</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8568241913216</v>
+        <v>814.5336845195542</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>640.0806552384272</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>491.1462455771759</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>331.9087905717204</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>185.3742325986053</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="J3" t="n">
-        <v>108.204863068301</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138131</v>
+        <v>278.0105538592113</v>
       </c>
       <c r="L3" t="n">
-        <v>710.517461256846</v>
+        <v>649.6216244022436</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459035</v>
+        <v>1135.253437604432</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101583</v>
+        <v>1649.445493246979</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.310927191455</v>
+        <v>2053.415090336851</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695912</v>
+        <v>2212.781883695906</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684991</v>
+        <v>2305.608548885986</v>
       </c>
       <c r="S3" t="n">
-        <v>2365.451310684991</v>
+        <v>2144.554785926777</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.253252679611</v>
+        <v>1945.051103087508</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.073425141821</v>
+        <v>1716.871275549718</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.921316910078</v>
+        <v>1481.719167317976</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1227.481810589774</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1019.630310384241</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>814.5336845195542</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.30902621369982</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369982</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369982</v>
+        <v>464.7224358422818</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369982</v>
+        <v>316.8093422598887</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369982</v>
+        <v>169.9193947619783</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369969</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181612</v>
+        <v>88.80529410181569</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365665</v>
+        <v>197.4326649365657</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950602</v>
+        <v>322.354119895059</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896748</v>
+        <v>449.7398382896732</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885936</v>
+        <v>551.3848716885917</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="W4" t="n">
-        <v>325.4219052176592</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="X4" t="n">
-        <v>268.1016053572299</v>
+        <v>614.8390752546176</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.30902621369982</v>
+        <v>614.8390752546176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1662.48357412947</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1662.48357412947</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1276.695321531225</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>865.7094167416178</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>447.7456086398047</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2683.476956529994</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2683.476956529994</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2683.476956529994</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2352.414069186424</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,13 +4667,13 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
         <v>2289.884200196743</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>227.8899898843846</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>58.95380695647771</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>58.95380695647771</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>58.95380695647771</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>58.95380695647771</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>58.95380695647771</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>58.95380695647771</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>58.95380695647771</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951862</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>409.5384547146243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2070.717079250664</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1701.754562310252</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X8" t="n">
-        <v>2070.717079250664</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>2070.717079250664</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.5813018857447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5813018857447</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>358.5813018857447</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>647.9984719227052</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>647.9984719227052</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>647.9984719227052</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>358.5813018857447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>358.5813018857447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>358.5813018857447</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622687</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294612</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,7 +5150,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5159,13 +5159,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.5812623108401</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C13" t="n">
-        <v>536.5812623108401</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D13" t="n">
-        <v>536.5812623108401</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145538</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>583.5523174165364</v>
+        <v>613.8485188318222</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.5523174165364</v>
+        <v>613.8485188318222</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5281,25 +5281,25 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1453.840519464784</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5311,13 +5311,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5372,37 +5372,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7264155301116</v>
+        <v>402.87788887324</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>402.87788887324</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>402.87788887324</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U16" t="n">
-        <v>1716.620652916489</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V16" t="n">
-        <v>1461.936164710602</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.518994673642</v>
+        <v>1033.308483745027</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.518994673642</v>
+        <v>805.3189328470098</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.7264155301116</v>
+        <v>584.5263537034797</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M17" t="n">
-        <v>1923.729615463052</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,49 +5597,49 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>909.27315417834</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>681.2836032803226</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>460.4910241367925</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,10 +5737,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5752,25 +5752,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1002.806306216376</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L20" t="n">
-        <v>1453.840519464784</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5779,25 +5779,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>278.8425593065537</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>109.9063763786467</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>109.9063763786467</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>109.9063763786467</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>109.9063763786467</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>909.2731541783409</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>681.2836032803235</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>460.4910241367934</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5995,16 +5995,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838516</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423041</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>596.6625674470428</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C28" t="n">
-        <v>427.7263845191359</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D28" t="n">
-        <v>427.7263845191359</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E28" t="n">
-        <v>427.7263845191359</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
         <v>241.7782212305366</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1916.828160666304</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1627.725293791948</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1373.040805586061</v>
       </c>
       <c r="W28" t="n">
-        <v>999.1036114208126</v>
+        <v>1083.6236355491</v>
       </c>
       <c r="X28" t="n">
-        <v>999.1036114208126</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="Y28" t="n">
-        <v>778.3110322772825</v>
+        <v>855.6340846510827</v>
       </c>
     </row>
     <row r="29">
@@ -6466,19 +6466,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O29" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>431.9845838435969</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C31" t="n">
-        <v>263.04840091569</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>112.9317615033542</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9317615033542</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>112.9317615033542</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>112.9317615033542</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>112.9317615033542</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1905.872593333508</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1714.186709160334</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1714.186709160334</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.724257814702</v>
+        <v>1425.083842285977</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.039769608815</v>
+        <v>1170.39935408009</v>
       </c>
       <c r="W31" t="n">
-        <v>841.6225995718539</v>
+        <v>880.9821840431298</v>
       </c>
       <c r="X31" t="n">
-        <v>613.6330486738366</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.6330486738366</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,28 +6700,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>369.0989517407039</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>702.9183254305503</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1153.952538678959</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>1687.484443350884</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6888,22 +6888,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1751.093193329805</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.093193329805</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1751.093193329805</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>784.0235789048305</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>784.0235789048305</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,19 +7174,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>619.8559841413803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>450.9198012134734</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>450.9198012134734</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>450.9198012134734</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>450.9198012134734</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>283.2169645881924</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>136.9997778060501</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>619.8559841413803</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>619.8559841413803</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7423,10 +7423,10 @@
         <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2883.993034926781</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107237</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1253.788099626699</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>1253.788099626699</v>
+        <v>1189.730853328392</v>
       </c>
       <c r="X43" t="n">
-        <v>1253.788099626699</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="Y43" t="n">
-        <v>1253.788099626699</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="44">
@@ -7636,58 +7636,58 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272053</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330835</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>410.1538185715858</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C46" t="n">
-        <v>410.1538185715858</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D46" t="n">
-        <v>410.1538185715858</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E46" t="n">
-        <v>410.1538185715858</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1263.862581712837</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="X46" t="n">
-        <v>591.8022834018255</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="Y46" t="n">
-        <v>591.8022834018255</v>
+        <v>974.4454116758762</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902263012</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>107.6070190727124</v>
+        <v>169.1179653904894</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>219.3344627260173</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8929,28 +8929,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>219.3344627260167</v>
+        <v>57.67224444723826</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>411.030428089901</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>219.3344627260164</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P29" t="n">
-        <v>133.2530576400256</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>85.51392558917576</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>96.13798426930725</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11071,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P41" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>317.5146261106137</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.3306356272979</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>130.8301120625275</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>8.216085025000297</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23709,7 +23709,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>48.88625314928115</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.92951905928955</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>151.8239197480784</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.3581746262462</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>180.4287968921534</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>79.15540062542787</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>38.96598862656317</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>130.8301120625275</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>206.1202045604618</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>109.5343962033641</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>55.32806448575894</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.03773402494309</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>65.92599321748315</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>72.34235525766201</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>109.0043389868309</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619920.4900757886</v>
+        <v>619920.4900757885</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619920.4900757886</v>
+        <v>619920.4900757885</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>619920.4900757886</v>
+        <v>619920.4900757885</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619920.4900757886</v>
+        <v>619920.4900757885</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>619920.4900757885</v>
+        <v>619920.4900757886</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>794163.5737739664</v>
+        <v>794163.5737739663</v>
       </c>
       <c r="F2" t="n">
         <v>794163.5737739663</v>
       </c>
       <c r="G2" t="n">
+        <v>794163.5737739663</v>
+      </c>
+      <c r="H2" t="n">
         <v>794163.5737739661</v>
       </c>
-      <c r="H2" t="n">
-        <v>794163.5737739662</v>
-      </c>
       <c r="I2" t="n">
-        <v>794163.5737739663</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="J2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739661</v>
       </c>
       <c r="K2" t="n">
         <v>794163.5737739661</v>
       </c>
       <c r="L2" t="n">
-        <v>794163.5737739658</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="M2" t="n">
+        <v>794163.5737739659</v>
+      </c>
+      <c r="N2" t="n">
         <v>794163.5737739661</v>
-      </c>
-      <c r="N2" t="n">
-        <v>794163.5737739659</v>
       </c>
       <c r="O2" t="n">
         <v>794163.5737739659</v>
       </c>
       <c r="P2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739659</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106481</v>
+        <v>493391.6844106462</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446898</v>
+        <v>91792.6395744709</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832161</v>
+        <v>154726.5356832155</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220077</v>
+        <v>21342.09858220122</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.9547659809</v>
+        <v>226943.9547659814</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,19 +26426,19 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499383</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499382</v>
@@ -26447,19 +26447,19 @@
         <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499374</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>76261.10613140112</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24445.02455625337</v>
+        <v>24445.02455625482</v>
       </c>
       <c r="C6" t="n">
-        <v>445325.5462986731</v>
+        <v>445325.5462986713</v>
       </c>
       <c r="D6" t="n">
-        <v>537118.1858731423</v>
+        <v>537118.1858731424</v>
       </c>
       <c r="E6" t="n">
-        <v>-54688.08214814762</v>
+        <v>-55360.03705040571</v>
       </c>
       <c r="F6" t="n">
-        <v>672689.3318452591</v>
+        <v>672017.3769430009</v>
       </c>
       <c r="G6" t="n">
-        <v>672689.3318452586</v>
+        <v>672017.3769430007</v>
       </c>
       <c r="H6" t="n">
-        <v>672689.3318452587</v>
+        <v>672017.3769430007</v>
       </c>
       <c r="I6" t="n">
-        <v>672689.3318452588</v>
+        <v>672017.3769430006</v>
       </c>
       <c r="J6" t="n">
-        <v>517962.7961620426</v>
+        <v>517290.8412597851</v>
       </c>
       <c r="K6" t="n">
-        <v>651347.2332630578</v>
+        <v>650675.2783607995</v>
       </c>
       <c r="L6" t="n">
-        <v>672689.3318452584</v>
+        <v>672017.3769430006</v>
       </c>
       <c r="M6" t="n">
-        <v>543047.0170063139</v>
+        <v>542375.0621040558</v>
       </c>
       <c r="N6" t="n">
-        <v>672689.3318452585</v>
+        <v>672017.3769430007</v>
       </c>
       <c r="O6" t="n">
-        <v>672689.3318452585</v>
+        <v>672017.3769430006</v>
       </c>
       <c r="P6" t="n">
-        <v>672689.3318452586</v>
+        <v>672017.3769430007</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435498</v>
+        <v>306.3599178435484</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712461</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435498</v>
+        <v>306.3599178435484</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353684</v>
+        <v>71.38374637353832</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712461</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330784</v>
+        <v>82.92444508330959</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712461</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330784</v>
+        <v>82.92444508330959</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712461</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330784</v>
+        <v>82.92444508330959</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>162.9947207958797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174347</v>
       </c>
       <c r="S2" t="n">
-        <v>71.5451581436928</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>291.1037932781559</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.2443341810083</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>123.0625685855499</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2.637036171264157</v>
       </c>
     </row>
     <row r="4">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>46.05426218479749</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848775</v>
+        <v>54.30080173848793</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731837</v>
+        <v>39.90169565731858</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>168.9625585272121</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>85.98948845797261</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>160.8802996656253</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>40.23924230378488</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>200.6413952147299</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>19.8638817074189</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>82.92183163979985</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>145.7058982971926</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30708,16 +30708,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672561</v>
+        <v>1.231597659672555</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212162</v>
+        <v>12.61309953212156</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452646</v>
+        <v>47.48116877452624</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676341</v>
+        <v>104.5303118676336</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015737</v>
+        <v>156.6638408015729</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787778</v>
+        <v>194.355347678777</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589798</v>
+        <v>216.2577725589787</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095244</v>
+        <v>219.7570494095234</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811554</v>
+        <v>207.5103501811544</v>
       </c>
       <c r="P2" t="n">
-        <v>177.105282957989</v>
+        <v>177.1052829579882</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709654</v>
+        <v>132.9986917709647</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940659</v>
+        <v>77.36434648940622</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978851</v>
+        <v>28.06503166978838</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216639</v>
+        <v>5.391318755216614</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380486</v>
+        <v>0.0985278127738044</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540505</v>
+        <v>0.6589628421540474</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014121</v>
+        <v>6.364193765014091</v>
       </c>
       <c r="I3" t="n">
-        <v>22.6879750478478</v>
+        <v>22.68797504784769</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403686</v>
+        <v>62.25753764403657</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683582</v>
+        <v>106.4080480683577</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966503</v>
+        <v>143.0787521966497</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247346</v>
+        <v>166.9661552247339</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302326</v>
+        <v>171.3852525302318</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382929</v>
+        <v>156.7840232382921</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723818</v>
+        <v>125.8330009723812</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338372</v>
+        <v>84.11602876338333</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163483</v>
+        <v>40.91349997163465</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422106</v>
+        <v>12.239945774221</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945492</v>
+        <v>2.65608268394548</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0433528185627665</v>
+        <v>0.0433528185627663</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654176</v>
+        <v>0.552452310865415</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91180327296708</v>
+        <v>4.911803272967057</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584365</v>
+        <v>16.61374767584358</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818503</v>
+        <v>39.05837837818484</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509123</v>
+        <v>64.18491393509093</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448219</v>
+        <v>82.13459174448181</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502177</v>
+        <v>86.59941087502136</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361438</v>
+        <v>84.54027044361398</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395924</v>
+        <v>78.08662299395887</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230466</v>
+        <v>66.81659585230435</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437601</v>
+        <v>46.2603475943758</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400323</v>
+        <v>24.84026481400311</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263683</v>
+        <v>9.627737090263638</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515875</v>
+        <v>2.360478055515864</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084099</v>
+        <v>0.03013376241084086</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32092,7 +32092,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P15" t="n">
         <v>447.6103584002926</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302161</v>
+        <v>92.58102251302113</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277578</v>
+        <v>260.7194023277572</v>
       </c>
       <c r="L2" t="n">
-        <v>376.250147259241</v>
+        <v>376.2501472592402</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245395</v>
+        <v>435.4250728245385</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249177</v>
+        <v>427.6909102249166</v>
       </c>
       <c r="O2" t="n">
-        <v>358.212320022214</v>
+        <v>358.212320022213</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742021</v>
+        <v>267.6709953742013</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564206</v>
+        <v>123.0079925564199</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.510946317779</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065779</v>
+        <v>233.0318461065773</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202353</v>
+        <v>375.3647177202347</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527162</v>
+        <v>490.5371850527155</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904528</v>
+        <v>519.385914790452</v>
       </c>
       <c r="O3" t="n">
-        <v>408.050098070578</v>
+        <v>408.0500980705772</v>
       </c>
       <c r="P3" t="n">
-        <v>99.465612630764</v>
+        <v>160.9765589485404</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132113</v>
+        <v>154.2115424132109</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920838</v>
+        <v>41.91542210920808</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>109.7246170047979</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368624</v>
+        <v>126.183287836862</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228426</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079989</v>
+        <v>102.6717509079985</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719815</v>
+        <v>64.09515511719783</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,19 +35412,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>727.3874636142364</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>674.9245771183487</v>
+        <v>513.2623588395702</v>
       </c>
       <c r="M14" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>963.3322635028122</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>556.5257492814169</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P29" t="n">
-        <v>532.0150438593975</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3009265578883</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>604.1909851575264</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37791,13 +37791,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P41" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -38019,22 +38019,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>856.4357419408404</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4085898.871091788</v>
+        <v>4089304.362216236</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095103</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>177.6050150184743</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>36.64846519197897</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100848</v>
+        <v>59.2443341810084</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.0456596060402</v>
+        <v>203.0456596060429</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163.4381150164775</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>121.3842648627958</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>13.53541314334621</v>
+        <v>107.8328430602446</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.960716884752115</v>
+        <v>34.08346683966637</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>266.3191370776132</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850742</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>126.0887386816666</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534542</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701367</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>87.22506181228255</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.211838205613</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>94.87954332650961</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.5769297729261</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>138.2178776215689</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>36.15999212057306</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.211838205613</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.380068175846031</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>286.211838205613</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534536</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.689844124971</v>
+        <v>163.6898441249695</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.211838205613</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>286.211838205613</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668601</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>120.6353666620239</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
-        <v>39.12015238401576</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>49.96616404348416</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>35.19569619650072</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>59.90320919298912</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>105.0076120744428</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873209</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396197</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>220.5970051191078</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>63.28280651916072</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>179.795288066166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1585.524671729989</v>
+        <v>1037.695461251993</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.562154789577</v>
+        <v>1037.695461251993</v>
       </c>
       <c r="D2" t="n">
-        <v>858.2964561828267</v>
+        <v>1037.695461251993</v>
       </c>
       <c r="E2" t="n">
-        <v>472.5082035845825</v>
+        <v>651.9072086537485</v>
       </c>
       <c r="F2" t="n">
-        <v>61.52229879497494</v>
+        <v>240.921303864141</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369969</v>
+        <v>226.7080312828657</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369969</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369969</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015904</v>
+        <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060702</v>
+        <v>397.0764468060707</v>
       </c>
       <c r="L2" t="n">
-        <v>769.564092592718</v>
+        <v>769.5640925927189</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689011</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811678</v>
+        <v>1624.04891581168</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.67911263367</v>
+        <v>1978.679112633672</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054129</v>
+        <v>2243.673398054131</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.451310684984</v>
+        <v>2111.666335841489</v>
       </c>
       <c r="V2" t="n">
-        <v>2328.432658975915</v>
+        <v>1780.603448497919</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.6640037058</v>
+        <v>1427.834793227805</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.6640037058</v>
+        <v>1427.834793227805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1585.524671729989</v>
+        <v>1037.695461251993</v>
       </c>
     </row>
     <row r="3">
@@ -4397,61 +4397,61 @@
         <v>331.9087905717204</v>
       </c>
       <c r="F3" t="n">
-        <v>185.3742325986053</v>
+        <v>185.3742325986054</v>
       </c>
       <c r="G3" t="n">
-        <v>47.30902621369969</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369969</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369969</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369969</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592113</v>
+        <v>130.1591986422588</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022436</v>
+        <v>501.7702691852914</v>
       </c>
       <c r="M3" t="n">
-        <v>1135.253437604432</v>
+        <v>987.40208238748</v>
       </c>
       <c r="N3" t="n">
-        <v>1649.445493246979</v>
+        <v>1501.594138030028</v>
       </c>
       <c r="O3" t="n">
-        <v>2053.415090336851</v>
+        <v>1905.5637351199</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695906</v>
+        <v>2212.781883695908</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885986</v>
+        <v>2305.608548885989</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926777</v>
+        <v>2144.55478592678</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087508</v>
+        <v>1945.051103087511</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549718</v>
+        <v>1716.871275549721</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317976</v>
+        <v>1481.719167317978</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589774</v>
+        <v>1227.481810589777</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384241</v>
+        <v>1019.630310384244</v>
       </c>
       <c r="Y3" t="n">
         <v>814.5336845195542</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546176</v>
+        <v>212.3980312808488</v>
       </c>
       <c r="C4" t="n">
-        <v>614.8390752546176</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="D4" t="n">
-        <v>464.7224358422818</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="E4" t="n">
-        <v>316.8093422598887</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9193947619783</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369969</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369969</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369969</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369969</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181569</v>
+        <v>88.80529410181586</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365657</v>
+        <v>197.432664936566</v>
       </c>
       <c r="M4" t="n">
-        <v>322.354119895059</v>
+        <v>322.3541198950595</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896732</v>
+        <v>449.7398382896739</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885917</v>
+        <v>551.3848716885926</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546176</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546176</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546176</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546176</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546176</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546176</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546176</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546176</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546176</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546176</v>
+        <v>394.0464961110885</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2683.476956529994</v>
+        <v>2533.198337851499</v>
       </c>
       <c r="T5" t="n">
-        <v>2683.476956529994</v>
+        <v>2533.198337851499</v>
       </c>
       <c r="U5" t="n">
-        <v>2683.476956529994</v>
+        <v>2279.43655248959</v>
       </c>
       <c r="V5" t="n">
-        <v>2352.414069186424</v>
+        <v>1948.373665146019</v>
       </c>
       <c r="W5" t="n">
-        <v>1999.645413916309</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.8899898843846</v>
+        <v>257.3069090307627</v>
       </c>
       <c r="C7" t="n">
-        <v>58.95380695647771</v>
+        <v>88.37072610285574</v>
       </c>
       <c r="D7" t="n">
-        <v>58.95380695647771</v>
+        <v>88.37072610285574</v>
       </c>
       <c r="E7" t="n">
-        <v>58.95380695647771</v>
+        <v>88.37072610285574</v>
       </c>
       <c r="F7" t="n">
-        <v>58.95380695647771</v>
+        <v>88.37072610285574</v>
       </c>
       <c r="G7" t="n">
-        <v>58.95380695647771</v>
+        <v>88.37072610285574</v>
       </c>
       <c r="H7" t="n">
-        <v>58.95380695647771</v>
+        <v>88.37072610285574</v>
       </c>
       <c r="I7" t="n">
-        <v>58.95380695647771</v>
+        <v>88.37072610285574</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146243</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146243</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146243</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
         <v>1222.906241876376</v>
@@ -4792,31 +4792,31 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.111172177389</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,19 +4895,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690178</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839449</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1898.858917622692</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195857</v>
+        <v>2432.390822294617</v>
       </c>
       <c r="N11" t="n">
-        <v>2762.028521254639</v>
+        <v>2979.169639353399</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232736</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188669</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419725</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946821</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331043</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604879</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261306</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.8161967543</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.568326046857</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839449</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,7 +5150,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5159,13 +5159,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>432.2000540015824</v>
+        <v>481.6968904858333</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736755</v>
+        <v>481.6968904858333</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736755</v>
+        <v>331.5802510734974</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736755</v>
+        <v>183.6671574911041</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839449</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839449</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839449</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839449</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1253.788099626698</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208114</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838507</v>
       </c>
       <c r="X13" t="n">
-        <v>613.8485188318222</v>
+        <v>481.6968904858333</v>
       </c>
       <c r="Y13" t="n">
-        <v>613.8485188318222</v>
+        <v>481.6968904858333</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277728</v>
@@ -5284,46 +5284,46 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814247</v>
+        <v>1614.698881814248</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644075</v>
+        <v>2593.249184644076</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>3573.001456870723</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.070220408989</v>
@@ -5354,22 +5354,22 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>402.87788887324</v>
+        <v>264.4972173763015</v>
       </c>
       <c r="C16" t="n">
-        <v>402.87788887324</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D16" t="n">
-        <v>402.87788887324</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O16" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1919.818221538467</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862231</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987875</v>
+        <v>1439.029470490937</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.725653781988</v>
+        <v>1184.34498228505</v>
       </c>
       <c r="W16" t="n">
-        <v>1033.308483745027</v>
+        <v>894.927812248089</v>
       </c>
       <c r="X16" t="n">
-        <v>805.3189328470098</v>
+        <v>666.9382613500716</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.5263537034797</v>
+        <v>446.1456822065413</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5521,37 +5521,37 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1732.058578925876</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2265.590483597801</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W17" t="n">
         <v>3524.42128699119</v>
@@ -5560,7 +5560,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>270.9417306852368</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>102.0055477573298</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799872</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593985</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570244</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590069</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>452.5901955154767</v>
       </c>
     </row>
     <row r="20">
@@ -5728,61 +5728,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866384</v>
+        <v>907.9024249011979</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139993</v>
+        <v>1772.421240554553</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969822</v>
+        <v>2750.971543384381</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>3297.750360443164</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604875</v>
@@ -5828,7 +5828,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1253.788099626698</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208114</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838507</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858333</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>260.904311342303</v>
       </c>
     </row>
     <row r="23">
@@ -5968,73 +5968,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6147,13 +6147,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626698</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357143</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201819</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>498.0020784221645</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6241,13 +6241,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>855.6340846510827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1916.828160666304</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1627.725293791948</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1373.040805586061</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.6236355491</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>855.6340846510827</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>855.6340846510827</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1905.872593333508</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1714.186709160334</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1714.186709160334</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1425.083842285977</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1170.39935408009</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>880.9821840431298</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>652.9926331451124</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>432.2000540015823</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6706,10 +6706,10 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N32" t="n">
         <v>2602.177459903277</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>300.048425655595</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>131.1122427276881</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>131.1122427276881</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>131.1122427276881</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>131.1122427276881</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6891,19 +6891,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6943,16 +6943,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N41" t="n">
-        <v>3316.966490094645</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7441,22 +7441,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.3002584566048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1189.730853328392</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>961.7413024303746</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>740.9487232868445</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1614.698881814246</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>974.4454116758762</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C46" t="n">
-        <v>805.5092287479694</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D46" t="n">
-        <v>655.3925893356336</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="E46" t="n">
-        <v>507.4794957532405</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="F46" t="n">
-        <v>360.5895482553301</v>
+        <v>305.7002480175677</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7842,16 +7842,16 @@
         <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1263.862581712837</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>974.4454116758762</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>974.4454116758762</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>974.4454116758762</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902263012</v>
+        <v>64.58008902262999</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>115.1204337631314</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>169.1179653904894</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476874</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>219.3344627260173</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>57.67224444723826</v>
+        <v>57.67224444723917</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>176.2173930448433</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>67.53663776704252</v>
+        <v>123.4719563470491</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>258.621178561693</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>60.66917680434125</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>133.2530576400255</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>58.19598621064881</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004744</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>130.8301120625275</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>8.216085025000297</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983823</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>52.7721605494744</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2354048423664</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004744</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696625</v>
+        <v>16.14213605696793</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004744</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004744</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>16.14213605696804</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
-        <v>180.4287968921534</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>38.96598862656317</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>130.8301120625275</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>159.6457400831801</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>43.60786094376951</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>65.92599321748315</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>102.7430017398675</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>72.34235525766201</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619920.4900757885</v>
+        <v>619920.4900757886</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619920.4900757885</v>
+        <v>619920.4900757886</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>794163.5737739663</v>
+        <v>794163.5737739664</v>
       </c>
       <c r="F2" t="n">
         <v>794163.5737739663</v>
       </c>
       <c r="G2" t="n">
+        <v>794163.5737739658</v>
+      </c>
+      <c r="H2" t="n">
+        <v>794163.5737739662</v>
+      </c>
+      <c r="I2" t="n">
         <v>794163.5737739663</v>
-      </c>
-      <c r="H2" t="n">
-        <v>794163.5737739661</v>
-      </c>
-      <c r="I2" t="n">
-        <v>794163.5737739659</v>
       </c>
       <c r="J2" t="n">
         <v>794163.5737739661</v>
       </c>
       <c r="K2" t="n">
+        <v>794163.5737739659</v>
+      </c>
+      <c r="L2" t="n">
+        <v>794163.5737739662</v>
+      </c>
+      <c r="M2" t="n">
         <v>794163.5737739661</v>
-      </c>
-      <c r="L2" t="n">
-        <v>794163.5737739659</v>
-      </c>
-      <c r="M2" t="n">
-        <v>794163.5737739659</v>
       </c>
       <c r="N2" t="n">
         <v>794163.5737739661</v>
       </c>
       <c r="O2" t="n">
-        <v>794163.5737739659</v>
+        <v>794163.5737739657</v>
       </c>
       <c r="P2" t="n">
-        <v>794163.5737739659</v>
+        <v>794163.5737739661</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106462</v>
+        <v>493391.684410647</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.6395744709</v>
+        <v>91792.63957447007</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832155</v>
+        <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220122</v>
+        <v>21342.09858220103</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.314838945</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.9547659814</v>
+        <v>226943.9547659812</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,19 +26426,19 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499367</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499372</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499372</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499382</v>
@@ -26450,16 +26450,16 @@
         <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="N4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499374</v>
+        <v>25090.72367499376</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140112</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.5182537137</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26490,7 +26490,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24445.02455625482</v>
+        <v>24445.02455625366</v>
       </c>
       <c r="C6" t="n">
-        <v>445325.5462986713</v>
+        <v>445325.5462986719</v>
       </c>
       <c r="D6" t="n">
-        <v>537118.1858731424</v>
+        <v>537118.185873142</v>
       </c>
       <c r="E6" t="n">
-        <v>-55360.03705040571</v>
+        <v>-54755.27763837357</v>
       </c>
       <c r="F6" t="n">
-        <v>672017.3769430009</v>
+        <v>672622.1363550335</v>
       </c>
       <c r="G6" t="n">
-        <v>672017.3769430007</v>
+        <v>672622.1363550324</v>
       </c>
       <c r="H6" t="n">
-        <v>672017.3769430007</v>
+        <v>672622.136355033</v>
       </c>
       <c r="I6" t="n">
-        <v>672017.3769430006</v>
+        <v>672622.1363550331</v>
       </c>
       <c r="J6" t="n">
-        <v>517290.8412597851</v>
+        <v>517895.600671817</v>
       </c>
       <c r="K6" t="n">
-        <v>650675.2783607995</v>
+        <v>651280.0377728316</v>
       </c>
       <c r="L6" t="n">
-        <v>672017.3769430006</v>
+        <v>672622.1363550329</v>
       </c>
       <c r="M6" t="n">
-        <v>542375.0621040558</v>
+        <v>542979.8215160877</v>
       </c>
       <c r="N6" t="n">
-        <v>672017.3769430007</v>
+        <v>672622.1363550329</v>
       </c>
       <c r="O6" t="n">
-        <v>672017.3769430006</v>
+        <v>672622.1363550324</v>
       </c>
       <c r="P6" t="n">
-        <v>672017.3769430007</v>
+        <v>672622.1363550329</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435484</v>
+        <v>306.359917843549</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712461</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="F4" t="n">
         <v>1194.51293060493</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435484</v>
+        <v>306.359917843549</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353832</v>
+        <v>71.38374637353769</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712461</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330959</v>
+        <v>82.92444508330883</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503757</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712461</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330959</v>
+        <v>82.92444508330883</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503757</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712461</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330959</v>
+        <v>82.92444508330883</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503757</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>149.2566875651713</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958797</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174347</v>
+        <v>72.5047714517433</v>
       </c>
       <c r="S2" t="n">
         <v>180.9550379164569</v>
@@ -27435,10 +27435,10 @@
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>291.1037932781559</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356739</v>
+        <v>66.70865780356735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.637036171264157</v>
+        <v>2.637036171261457</v>
       </c>
     </row>
     <row r="4">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>3.808706082150337</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>46.05426218479749</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848793</v>
+        <v>54.30080173848786</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731858</v>
+        <v>39.90169565731848</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631664</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>160.8802996656253</v>
+        <v>66.58286974872688</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>40.23924230378488</v>
+        <v>11.11649234887062</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>82.92183163979985</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339484</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>92.49591467042818</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.816551896807438e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28629,10 +28629,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.212659602363904e-13</v>
       </c>
     </row>
     <row r="26">
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30705,19 +30705,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.205788572437525e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672555</v>
+        <v>1.231597659672558</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212156</v>
+        <v>12.61309953212159</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452624</v>
+        <v>47.48116877452633</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676336</v>
+        <v>104.5303118676339</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015729</v>
+        <v>156.6638408015733</v>
       </c>
       <c r="L2" t="n">
-        <v>194.355347678777</v>
+        <v>194.3553476787773</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589787</v>
+        <v>216.2577725589792</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095234</v>
+        <v>219.7570494095239</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811544</v>
+        <v>207.5103501811548</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579882</v>
+        <v>177.1052829579885</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709647</v>
+        <v>132.998691770965</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940622</v>
+        <v>77.36434648940639</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978838</v>
+        <v>28.06503166978844</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216614</v>
+        <v>5.391318755216624</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0985278127738044</v>
+        <v>0.09852781277380461</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540474</v>
+        <v>0.6589628421540488</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014091</v>
+        <v>6.364193765014104</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784769</v>
+        <v>22.68797504784774</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403657</v>
+        <v>62.2575376440367</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683577</v>
+        <v>106.408048068358</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966497</v>
+        <v>143.07875219665</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247339</v>
+        <v>166.9661552247342</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302318</v>
+        <v>171.3852525302322</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382921</v>
+        <v>156.7840232382925</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723812</v>
+        <v>125.8330009723815</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338333</v>
+        <v>84.1160287633835</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163465</v>
+        <v>40.91349997163473</v>
       </c>
       <c r="S3" t="n">
-        <v>12.239945774221</v>
+        <v>12.23994577422103</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394548</v>
+        <v>2.656082683945485</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0433528185627663</v>
+        <v>0.04335281856276638</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.552452310865415</v>
+        <v>0.5524523108654161</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967057</v>
+        <v>4.911803272967068</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584358</v>
+        <v>16.61374767584361</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818484</v>
+        <v>39.05837837818492</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509093</v>
+        <v>64.18491393509106</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448181</v>
+        <v>82.13459174448198</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502136</v>
+        <v>86.59941087502155</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361398</v>
+        <v>84.54027044361415</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395887</v>
+        <v>78.08662299395904</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230435</v>
+        <v>66.81659585230449</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.2603475943758</v>
+        <v>46.2603475943759</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400311</v>
+        <v>24.84026481400316</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263638</v>
+        <v>9.627737090263658</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515864</v>
+        <v>2.360478055515868</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084086</v>
+        <v>0.03013376241084092</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32092,7 +32092,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
         <v>447.6103584002926</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302113</v>
+        <v>92.58102251302134</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277572</v>
+        <v>260.7194023277575</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592402</v>
+        <v>376.2501472592405</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245385</v>
+        <v>435.4250728245389</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249166</v>
+        <v>427.6909102249171</v>
       </c>
       <c r="O2" t="n">
-        <v>358.212320022213</v>
+        <v>358.2123200222135</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742013</v>
+        <v>267.6709953742017</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564199</v>
+        <v>123.0079925564202</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065773</v>
+        <v>83.68704285713039</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202347</v>
+        <v>375.3647177202349</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527155</v>
+        <v>490.5371850527158</v>
       </c>
       <c r="N3" t="n">
-        <v>519.385914790452</v>
+        <v>519.3859147904525</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705772</v>
+        <v>408.0500980705775</v>
       </c>
       <c r="P3" t="n">
-        <v>160.9765589485404</v>
+        <v>310.3213621979884</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132109</v>
+        <v>154.2115424132111</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920808</v>
+        <v>41.91542210920821</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047979</v>
+        <v>109.7246170047981</v>
       </c>
       <c r="M4" t="n">
-        <v>126.183287836862</v>
+        <v>126.1832878368621</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228426</v>
+        <v>128.6724428228428</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079985</v>
+        <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719783</v>
+        <v>64.09515511719798</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,19 +35412,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400196</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>727.3874636142364</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130661</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789353</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>513.2623588395702</v>
+        <v>513.2623588395711</v>
       </c>
       <c r="M14" t="n">
         <v>988.434649323059</v>
@@ -35740,7 +35740,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306607</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.3942385378935</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>631.8075074371754</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,13 +35898,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130661</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789353</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>404.727924322443</v>
+        <v>460.6632429024496</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
@@ -36132,7 +36132,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36141,7 +36141,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130661</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789353</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130661</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789353</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36609,16 +36609,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>766.6741794499121</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>743.6379293484354</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37311,7 +37311,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>741.2912249487529</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,10 +37320,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>516.2592911966734</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>766.6741794499121</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>470.444344195426</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
